--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E77A129-0EBF-47E0-9F38-2073CA6E11DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FF195-9810-4CB5-B7CD-AA797A6F6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,7 +180,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,11 +528,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E79E6A7-0F89-4EFE-8AC2-32BDB009BAD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56240AFB-6A15-4EC4-8161-C6283DFB606C}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3FF195-9810-4CB5-B7CD-AA797A6F6D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC28D5-5FC7-413F-98C3-1FA1C9691C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56240AFB-6A15-4EC4-8161-C6283DFB606C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F3B92C-B786-4FBF-A765-5A4547966888}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EC28D5-5FC7-413F-98C3-1FA1C9691C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A479E-6F6B-4EF2-A032-9CF8F251B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ALL LEDGERS</t>
   </si>
@@ -84,13 +84,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>IN23/12651</t>
-  </si>
-  <si>
-    <t>Cleaning Service 4 Hrs 2 Persons</t>
-  </si>
-  <si>
-    <t>Infinity Wave Sdn Bhd</t>
+    <t>Monthly meeting</t>
   </si>
 </sst>
 </file>
@@ -528,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F3B92C-B786-4FBF-A765-5A4547966888}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93147FC2-9EB3-450E-9400-1834E06354B9}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -618,22 +612,19 @@
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="11">
-        <v>45031</v>
+        <v>44737</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1">
+        <v>12345</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K10" s="1">
-        <v>180</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A479E-6F6B-4EF2-A032-9CF8F251B4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C3DA5-BF93-44FE-9886-224872139E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ALL LEDGERS</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>MYR</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Monthly meeting</t>
   </si>
 </sst>
 </file>
@@ -154,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,7 +168,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +515,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93147FC2-9EB3-450E-9400-1834E06354B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8969F2-6946-4498-8898-DBA08196D9E6}">
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -610,23 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="11">
-        <v>44737</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1">
-        <v>12345</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2000</v>
-      </c>
-    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588C3DA5-BF93-44FE-9886-224872139E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C12D4B-9494-4C15-8CE7-2365F83FF58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>ALL LEDGERS</t>
   </si>
@@ -79,13 +79,70 @@
   </si>
   <si>
     <t>MYR</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Infinity Wave Sdn Bhd</t>
+  </si>
+  <si>
+    <t>TANGII-2410-24</t>
+  </si>
+  <si>
+    <t>LADA HIJAU JJ-HI
+9</t>
+  </si>
+  <si>
+    <t>LADA MERAH {I }J-HI
+10</t>
+  </si>
+  <si>
+    <t>BENDI #5-X
+30</t>
+  </si>
+  <si>
+    <t>KPJ -TK-
+30</t>
+  </si>
+  <si>
+    <t>K. MERAH 'I-HE
+10</t>
+  </si>
+  <si>
+    <t>L. KASTURI T-NN
+10</t>
+  </si>
+  <si>
+    <t>PERIA #JA-SLF
+10</t>
+  </si>
+  <si>
+    <t>PETOLA AMI-QC
+30</t>
+  </si>
+  <si>
+    <t>TERUNG LP -
+10</t>
+  </si>
+  <si>
+    <t>TERUNG T-DV
+20</t>
+  </si>
+  <si>
+    <t>TIMUN JA-JSA
+50</t>
+  </si>
+  <si>
+    <t>SERAI + &amp;-HV
+20X2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +166,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -167,6 +230,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +574,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -515,8 +584,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B8969F2-6946-4498-8898-DBA08196D9E6}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B597A8-810A-4971-842F-1F3292B8204C}">
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -603,16 +672,743 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12">
+        <v>76.5</v>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12">
+        <v>80</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12">
+        <v>150</v>
+      </c>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12">
+        <v>150</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12">
+        <v>45</v>
+      </c>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12">
+        <v>55</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="12">
+        <v>46</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12">
+        <v>135</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12">
+        <v>45</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
+        <v>84</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" ht="21.6">
+      <c r="A20" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12">
+        <v>140</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="21.6">
+      <c r="A21" s="13">
+        <v>45589</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12">
+        <v>100</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="1" header="0.5" footer="0.5"/>

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCB5191-2774-4760-8FC0-7D5A04752EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B287C0D-18B8-4DA8-82E4-B79CBEF87087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Labfiles/01-prebuild-models/results/testing.xlsx
+++ b/Labfiles/01-prebuild-models/results/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\DocToExcel2\DocToExcel\Labfiles\01-prebuild-models\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B287C0D-18B8-4DA8-82E4-B79CBEF87087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A586F3-3BA1-4410-B34C-C15ED8E7A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
